--- a/PivotalImporter2.Web/Uploads/pivotalimporter2_example.xlsx
+++ b/PivotalImporter2.Web/Uploads/pivotalimporter2_example.xlsx
@@ -18,9 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
-    <t>BFA_Q017 Franchisee Management (Catherine Harris)</t>
-  </si>
-  <si>
     <t>Daily Rate</t>
   </si>
   <si>
@@ -36,18 +33,12 @@
     <t>Domain</t>
   </si>
   <si>
-    <t>Create FranchiseeListStatus object</t>
-  </si>
-  <si>
     <t>Notifications</t>
   </si>
   <si>
     <t>Create new notification/reminder app</t>
   </si>
   <si>
-    <t>Run every two weeks. Check if franchisor notification or reminder due, send them, update list</t>
-  </si>
-  <si>
     <t>Testing</t>
   </si>
   <si>
@@ -87,31 +78,40 @@
     <t>Hrs to points</t>
   </si>
   <si>
-    <t>Name 1</t>
-  </si>
-  <si>
-    <t>Create FranchiseeList object desc</t>
-  </si>
-  <si>
-    <t>Do story one</t>
-  </si>
-  <si>
     <t>Labels</t>
   </si>
   <si>
-    <t>Do story one, label2, label 3</t>
-  </si>
-  <si>
-    <t>creat fl</t>
-  </si>
-  <si>
     <t>Proj name</t>
   </si>
   <si>
     <t>Generic labels</t>
   </si>
   <si>
-    <t>BFA_Q017, bfa</t>
+    <t>TPN_0833, tpn</t>
+  </si>
+  <si>
+    <t>TPN_083 Test Project Phase 2</t>
+  </si>
+  <si>
+    <t>Story One</t>
+  </si>
+  <si>
+    <t>Create CRUD for User admin</t>
+  </si>
+  <si>
+    <t>Create Status admin</t>
+  </si>
+  <si>
+    <t>Create CRUD for Status admin</t>
+  </si>
+  <si>
+    <t>Run every two weeks. Check if notification or reminder due, send them, update list</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Do story one, admin</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
   <dimension ref="A2:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -512,21 +512,21 @@
   <sheetData>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E2" s="3">
         <v>2</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="5">
         <v>525</v>
@@ -535,16 +535,16 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="5">
         <v>70</v>
@@ -556,10 +556,10 @@
       <c r="B4" s="3"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -569,43 +569,43 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="7">
         <v>4</v>
@@ -618,25 +618,25 @@
         <v>0</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7">
         <v>4</v>
@@ -649,13 +649,13 @@
         <v>1</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J7" s="5"/>
     </row>
@@ -673,13 +673,13 @@
     </row>
     <row r="9" spans="1:10" ht="32.25" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D9" s="7">
         <v>7.5</v>
@@ -692,17 +692,17 @@
         <v>3</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="7"/>
@@ -715,7 +715,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="7"/>
@@ -739,7 +739,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="10">
